--- a/data/trans_dic/P22$concerEmp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,95</t>
+          <t>1,56; 4,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,24</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,67</t>
+          <t>0,89; 2,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,25</t>
+          <t>0,13; 1,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
     </row>
@@ -864,52 +865,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,67</t>
+          <t>1,91; 4,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,55</t>
+          <t>0,81; 2,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,52</t>
+          <t>0,28; 2,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,56</t>
+          <t>0,67; 4,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,45</t>
+          <t>0,56; 2,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,1</t>
+          <t>0,39; 1,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,83</t>
+          <t>0,16; 1,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,12</t>
+          <t>1,47; 3,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,96</t>
+          <t>0,67; 1,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,29</t>
+          <t>0,56; 2,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,96</t>
+          <t>2,17; 4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,93</t>
+          <t>0,96; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,04</t>
+          <t>0,29; 2,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,96</t>
+          <t>1,26; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,91</t>
+          <t>0,32; 1,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,23</t>
+          <t>0,14; 1,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,58</t>
+          <t>0,27; 1,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,55</t>
+          <t>0,26; 1,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,9</t>
+          <t>1,45; 3,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,7</t>
+          <t>0,62; 1,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,49</t>
+          <t>0,4; 1,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,65</t>
+          <t>0,89; 2,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,65</t>
+          <t>0,92; 3,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,85</t>
+          <t>0,9; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,44</t>
+          <t>0,15; 1,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,62</t>
+          <t>0,45; 2,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,68</t>
+          <t>0,16; 1,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,29</t>
+          <t>0,15; 1,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,11</t>
+          <t>0,68; 2,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,15</t>
+          <t>0,74; 2,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,0</t>
+          <t>0,52; 2,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,02</t>
+          <t>0,19; 1,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,12</t>
+          <t>0,72; 2,03</t>
         </is>
       </c>
     </row>
@@ -1284,22 +1285,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,69</t>
+          <t>0,49; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,0</t>
+          <t>0,23; 2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,68</t>
+          <t>1,03; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,64</t>
+          <t>0,35; 1,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,41</t>
+          <t>0,24; 1,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,13</t>
+          <t>0,12; 1,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,88</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,3</t>
+          <t>0,86; 2,27</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1464,12 +1465,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1570,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1609,7 +1610,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,9</t>
+          <t>0,06; 0,83</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,85</t>
+          <t>1,8; 2,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,62</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,95</t>
+          <t>0,34; 0,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,91</t>
+          <t>0,97; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,85</t>
+          <t>0,33; 0,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
+          <t>0,2; 0,62</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
           <t>0,19; 0,59</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,59</t>
-        </is>
-      </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,96</t>
+          <t>0,43; 0,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,7</t>
+          <t>1,12; 1,68</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,99</t>
+          <t>0,55; 1,02</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,7</t>
+          <t>0,32; 0,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,29</t>
+          <t>0,79; 1,29</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado por su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14200</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2725</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2333</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15165</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4055</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7714; 23527</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5300</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9530</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13734</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4833</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5192</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6703</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8588</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8581; 24686</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8008</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1029; 10251</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14461</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21630</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6077</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8069</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7770</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5998</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3203</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29400</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15990</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7845</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11272</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13972; 33181</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5561; 18674</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1661; 14613</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2827; 18842</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3521; 14703</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2360; 12117</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6193</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>841; 8481</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19944; 41343</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8756; 25177</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3323; 17298</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5230; 22135</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21305</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11561</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5875</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12874</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6366</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3049</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4678</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27671</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14610</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10554</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16452</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13873; 30918</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6552; 19507</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1932; 13492</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6779; 21727</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2207; 13426</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>964; 8420</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1781; 10351</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1402; 7787</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19197; 40723</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8666; 24550</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5377; 18573</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9548; 27229</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10252</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11585</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3470</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12240</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3118</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8891</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13369</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13581</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6570</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21131</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4773; 18516</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5512; 24261</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>991; 10587</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4037; 24097</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>801; 8795</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6879</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>990; 8157</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4849; 15156</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7684; 23184</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6429; 25714</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2477; 14342</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11455; 32544</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4893</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11353</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1054</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2215</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4893</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3215</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15731</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1897; 10759</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1000; 9389</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5027</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5801; 18659</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4873</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6797</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1895; 8779</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1885; 11042</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1062; 10775</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>998; 8616</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9481; 25072</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1056</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1250</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5958</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5276</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4230</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2458</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5902</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5237</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5572</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1823</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4850</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1628</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4295</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2202</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2544</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 3273</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2044</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4746</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2088</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>437; 5856</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>73335</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>39387</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>19148</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>48766</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>18219</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>13076</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>12787</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>23200</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>91553</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>52463</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>31935</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>71966</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>58910; 91539</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>27146; 53641</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>11358; 31139</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>33658; 66724</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>11173; 28937</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>7093; 22154</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>6866; 21055</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>15751; 33438</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>74200; 112004</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>38600; 70893</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>22121; 45723</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>56288; 91591</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>